--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-IP版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-IP版.xlsx
@@ -1156,9 +1156,6 @@
     <t>宁夏卫视</t>
   </si>
   <si>
-    <t>青海安多卫视</t>
-  </si>
-  <si>
     <t>青海卫视</t>
   </si>
   <si>
@@ -1171,9 +1168,6 @@
     <t>陕西卫视</t>
   </si>
   <si>
-    <t>四川康巴卫视</t>
-  </si>
-  <si>
     <t>西藏卫视</t>
   </si>
   <si>
@@ -1187,6 +1181,12 @@
   </si>
   <si>
     <t>鸡西安全生活</t>
+  </si>
+  <si>
+    <t>安多卫视</t>
+  </si>
+  <si>
+    <t>康巴卫视</t>
   </si>
 </sst>
 </file>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -7422,7 +7422,7 @@
         <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
         <v>146</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -7448,7 +7448,7 @@
         <v>345</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
         <v>146</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -7474,7 +7474,7 @@
         <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>146</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -7500,7 +7500,7 @@
         <v>345</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
         <v>146</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -7526,7 +7526,7 @@
         <v>345</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
         <v>146</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -7552,7 +7552,7 @@
         <v>345</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G7" t="s">
         <v>146</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -7578,7 +7578,7 @@
         <v>345</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" t="s">
         <v>146</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -7604,7 +7604,7 @@
         <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
         <v>146</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -7630,7 +7630,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
         <v>146</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -7656,7 +7656,7 @@
         <v>345</v>
       </c>
       <c r="F11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
         <v>146</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -7682,7 +7682,7 @@
         <v>345</v>
       </c>
       <c r="F12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" t="s">
         <v>146</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -7708,7 +7708,7 @@
         <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" t="s">
         <v>146</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -7734,7 +7734,7 @@
         <v>345</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
         <v>146</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -7760,7 +7760,7 @@
         <v>345</v>
       </c>
       <c r="F15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
         <v>146</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -7786,7 +7786,7 @@
         <v>345</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
         <v>146</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -7812,7 +7812,7 @@
         <v>345</v>
       </c>
       <c r="F17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
         <v>146</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -7838,7 +7838,7 @@
         <v>345</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
         <v>146</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -7864,7 +7864,7 @@
         <v>345</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
         <v>146</v>
@@ -7890,7 +7890,7 @@
         <v>345</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
         <v>146</v>
@@ -7916,7 +7916,7 @@
         <v>345</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
         <v>146</v>
@@ -7942,7 +7942,7 @@
         <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
         <v>146</v>
@@ -7968,7 +7968,7 @@
         <v>345</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
         <v>146</v>
@@ -7994,7 +7994,7 @@
         <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
         <v>146</v>
@@ -8020,7 +8020,7 @@
         <v>345</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
         <v>146</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -8046,7 +8046,7 @@
         <v>345</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
         <v>146</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -8072,7 +8072,7 @@
         <v>345</v>
       </c>
       <c r="F27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
         <v>146</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -8098,7 +8098,7 @@
         <v>345</v>
       </c>
       <c r="F28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
         <v>146</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -8124,7 +8124,7 @@
         <v>345</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
         <v>146</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -8150,7 +8150,7 @@
         <v>345</v>
       </c>
       <c r="F30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
         <v>146</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -8176,7 +8176,7 @@
         <v>345</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
         <v>146</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -8202,7 +8202,7 @@
         <v>345</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
         <v>146</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -8228,7 +8228,7 @@
         <v>345</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" t="s">
         <v>146</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -8254,7 +8254,7 @@
         <v>345</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
         <v>146</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -8280,7 +8280,7 @@
         <v>345</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
         <v>146</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -8306,7 +8306,7 @@
         <v>345</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
         <v>146</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -8332,7 +8332,7 @@
         <v>345</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
         <v>146</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -8358,7 +8358,7 @@
         <v>345</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
         <v>146</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -8384,7 +8384,7 @@
         <v>345</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G39" t="s">
         <v>146</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -8410,7 +8410,7 @@
         <v>345</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
         <v>146</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -8436,7 +8436,7 @@
         <v>345</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
         <v>146</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -8462,7 +8462,7 @@
         <v>345</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G42" t="s">
         <v>146</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -8488,7 +8488,7 @@
         <v>345</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G43" t="s">
         <v>146</v>
@@ -8514,7 +8514,7 @@
         <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G44" t="s">
         <v>146</v>
@@ -8540,7 +8540,7 @@
         <v>345</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G45" t="s">
         <v>146</v>
@@ -8566,7 +8566,7 @@
         <v>345</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
         <v>146</v>
@@ -8592,7 +8592,7 @@
         <v>345</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" t="s">
         <v>146</v>
@@ -8618,7 +8618,7 @@
         <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" t="s">
         <v>146</v>
@@ -8644,7 +8644,7 @@
         <v>345</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" t="s">
         <v>146</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -8670,7 +8670,7 @@
         <v>345</v>
       </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" t="s">
         <v>146</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -8696,7 +8696,7 @@
         <v>345</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" t="s">
         <v>146</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -8722,7 +8722,7 @@
         <v>345</v>
       </c>
       <c r="F52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
         <v>146</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -8748,7 +8748,7 @@
         <v>345</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G53" t="s">
         <v>146</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -8774,7 +8774,7 @@
         <v>345</v>
       </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G54" t="s">
         <v>146</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -8800,7 +8800,7 @@
         <v>345</v>
       </c>
       <c r="F55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
         <v>146</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -8826,7 +8826,7 @@
         <v>345</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G56" t="s">
         <v>146</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -8852,7 +8852,7 @@
         <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G57" t="s">
         <v>146</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -8878,7 +8878,7 @@
         <v>345</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G58" t="s">
         <v>146</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -8904,7 +8904,7 @@
         <v>345</v>
       </c>
       <c r="F59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G59" t="s">
         <v>146</v>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -8930,7 +8930,7 @@
         <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G60" t="s">
         <v>146</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -8956,7 +8956,7 @@
         <v>345</v>
       </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G61" t="s">
         <v>146</v>
@@ -8982,7 +8982,7 @@
         <v>345</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G62" t="s">
         <v>146</v>
@@ -9008,7 +9008,7 @@
         <v>345</v>
       </c>
       <c r="F63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G63" t="s">
         <v>146</v>
@@ -9034,7 +9034,7 @@
         <v>345</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G64" t="s">
         <v>146</v>
@@ -9060,7 +9060,7 @@
         <v>345</v>
       </c>
       <c r="F65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G65" t="s">
         <v>146</v>
@@ -9086,7 +9086,7 @@
         <v>345</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G66" t="s">
         <v>146</v>
@@ -9112,7 +9112,7 @@
         <v>345</v>
       </c>
       <c r="F67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G67" t="s">
         <v>146</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
@@ -9138,7 +9138,7 @@
         <v>345</v>
       </c>
       <c r="F68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G68" t="s">
         <v>146</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -9164,7 +9164,7 @@
         <v>345</v>
       </c>
       <c r="F69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G69" t="s">
         <v>146</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -9190,7 +9190,7 @@
         <v>345</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
         <v>146</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
@@ -9216,7 +9216,7 @@
         <v>345</v>
       </c>
       <c r="F71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G71" t="s">
         <v>146</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -9242,7 +9242,7 @@
         <v>345</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G72" t="s">
         <v>146</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -9268,7 +9268,7 @@
         <v>345</v>
       </c>
       <c r="F73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G73" t="s">
         <v>146</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
@@ -9294,7 +9294,7 @@
         <v>345</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G74" t="s">
         <v>146</v>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -9320,7 +9320,7 @@
         <v>345</v>
       </c>
       <c r="F75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G75" t="s">
         <v>146</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -9346,7 +9346,7 @@
         <v>345</v>
       </c>
       <c r="F76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G76" t="s">
         <v>146</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -9372,7 +9372,7 @@
         <v>345</v>
       </c>
       <c r="F77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G77" t="s">
         <v>146</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -9398,7 +9398,7 @@
         <v>345</v>
       </c>
       <c r="F78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
         <v>146</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
@@ -9424,7 +9424,7 @@
         <v>345</v>
       </c>
       <c r="F79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G79" t="s">
         <v>146</v>
@@ -9450,7 +9450,7 @@
         <v>345</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G80" t="s">
         <v>146</v>
@@ -9476,7 +9476,7 @@
         <v>345</v>
       </c>
       <c r="F81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G81" t="s">
         <v>146</v>
@@ -9502,7 +9502,7 @@
         <v>345</v>
       </c>
       <c r="F82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G82" t="s">
         <v>146</v>
@@ -9528,7 +9528,7 @@
         <v>345</v>
       </c>
       <c r="F83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G83" t="s">
         <v>146</v>
@@ -9554,7 +9554,7 @@
         <v>345</v>
       </c>
       <c r="F84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G84" t="s">
         <v>146</v>
@@ -9580,7 +9580,7 @@
         <v>345</v>
       </c>
       <c r="F85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G85" t="s">
         <v>146</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -9606,7 +9606,7 @@
         <v>345</v>
       </c>
       <c r="F86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G86" t="s">
         <v>146</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -9632,7 +9632,7 @@
         <v>345</v>
       </c>
       <c r="F87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G87" t="s">
         <v>146</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -9658,7 +9658,7 @@
         <v>345</v>
       </c>
       <c r="F88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G88" t="s">
         <v>146</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -9684,7 +9684,7 @@
         <v>345</v>
       </c>
       <c r="F89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G89" t="s">
         <v>146</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -9710,7 +9710,7 @@
         <v>345</v>
       </c>
       <c r="F90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G90" t="s">
         <v>146</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -9736,7 +9736,7 @@
         <v>345</v>
       </c>
       <c r="F91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G91" t="s">
         <v>146</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -9762,7 +9762,7 @@
         <v>345</v>
       </c>
       <c r="F92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G92" t="s">
         <v>146</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -9788,7 +9788,7 @@
         <v>345</v>
       </c>
       <c r="F93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G93" t="s">
         <v>146</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -9814,7 +9814,7 @@
         <v>345</v>
       </c>
       <c r="F94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G94" t="s">
         <v>146</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
@@ -9840,7 +9840,7 @@
         <v>345</v>
       </c>
       <c r="F95" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G95" t="s">
         <v>146</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -9866,7 +9866,7 @@
         <v>345</v>
       </c>
       <c r="F96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G96" t="s">
         <v>146</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -9892,7 +9892,7 @@
         <v>345</v>
       </c>
       <c r="F97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
         <v>146</v>
@@ -9918,7 +9918,7 @@
         <v>345</v>
       </c>
       <c r="F98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G98" t="s">
         <v>146</v>
@@ -9944,7 +9944,7 @@
         <v>345</v>
       </c>
       <c r="F99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G99" t="s">
         <v>146</v>
@@ -9970,7 +9970,7 @@
         <v>345</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G100" t="s">
         <v>146</v>
@@ -9996,7 +9996,7 @@
         <v>345</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G101" t="s">
         <v>146</v>
@@ -10022,7 +10022,7 @@
         <v>345</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G102" t="s">
         <v>146</v>
@@ -10048,7 +10048,7 @@
         <v>345</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G103" t="s">
         <v>146</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
@@ -10074,7 +10074,7 @@
         <v>345</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G104" t="s">
         <v>146</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
@@ -10100,7 +10100,7 @@
         <v>345</v>
       </c>
       <c r="F105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G105" t="s">
         <v>146</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -10126,7 +10126,7 @@
         <v>345</v>
       </c>
       <c r="F106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G106" t="s">
         <v>146</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -10152,7 +10152,7 @@
         <v>345</v>
       </c>
       <c r="F107" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
         <v>146</v>
@@ -10163,7 +10163,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -10178,7 +10178,7 @@
         <v>345</v>
       </c>
       <c r="F108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G108" t="s">
         <v>146</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
@@ -10204,7 +10204,7 @@
         <v>345</v>
       </c>
       <c r="F109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G109" t="s">
         <v>146</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
@@ -10230,7 +10230,7 @@
         <v>345</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G110" t="s">
         <v>146</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
@@ -10256,7 +10256,7 @@
         <v>345</v>
       </c>
       <c r="F111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G111" t="s">
         <v>146</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -10282,7 +10282,7 @@
         <v>345</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G112" t="s">
         <v>146</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
@@ -10308,7 +10308,7 @@
         <v>345</v>
       </c>
       <c r="F113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G113" t="s">
         <v>146</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -10334,7 +10334,7 @@
         <v>345</v>
       </c>
       <c r="F114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G114" t="s">
         <v>146</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -10360,7 +10360,7 @@
         <v>345</v>
       </c>
       <c r="F115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G115" t="s">
         <v>146</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -10386,7 +10386,7 @@
         <v>345</v>
       </c>
       <c r="F116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G116" t="s">
         <v>146</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
@@ -10412,7 +10412,7 @@
         <v>345</v>
       </c>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G117" t="s">
         <v>146</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
@@ -10438,7 +10438,7 @@
         <v>345</v>
       </c>
       <c r="F118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G118" t="s">
         <v>146</v>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
@@ -10464,7 +10464,7 @@
         <v>345</v>
       </c>
       <c r="F119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G119" t="s">
         <v>146</v>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
@@ -10490,7 +10490,7 @@
         <v>345</v>
       </c>
       <c r="F120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G120" t="s">
         <v>146</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
@@ -10516,7 +10516,7 @@
         <v>345</v>
       </c>
       <c r="F121" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G121" t="s">
         <v>146</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
@@ -10542,7 +10542,7 @@
         <v>345</v>
       </c>
       <c r="F122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G122" t="s">
         <v>146</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -10568,7 +10568,7 @@
         <v>345</v>
       </c>
       <c r="F123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G123" t="s">
         <v>146</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
@@ -10594,7 +10594,7 @@
         <v>345</v>
       </c>
       <c r="F124" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G124" t="s">
         <v>146</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
@@ -10620,7 +10620,7 @@
         <v>345</v>
       </c>
       <c r="F125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G125" t="s">
         <v>146</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
@@ -10646,7 +10646,7 @@
         <v>345</v>
       </c>
       <c r="F126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G126" t="s">
         <v>146</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -10672,7 +10672,7 @@
         <v>345</v>
       </c>
       <c r="F127" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G127" t="s">
         <v>146</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -10698,7 +10698,7 @@
         <v>345</v>
       </c>
       <c r="F128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G128" t="s">
         <v>146</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
@@ -10724,7 +10724,7 @@
         <v>345</v>
       </c>
       <c r="F129" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G129" t="s">
         <v>146</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
@@ -10750,7 +10750,7 @@
         <v>345</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G130" t="s">
         <v>146</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
@@ -10776,7 +10776,7 @@
         <v>345</v>
       </c>
       <c r="F131" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G131" t="s">
         <v>146</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
@@ -10802,7 +10802,7 @@
         <v>345</v>
       </c>
       <c r="F132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G132" t="s">
         <v>146</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -10828,7 +10828,7 @@
         <v>345</v>
       </c>
       <c r="F133" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G133" t="s">
         <v>146</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -10854,7 +10854,7 @@
         <v>345</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G134" t="s">
         <v>146</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
@@ -10880,7 +10880,7 @@
         <v>345</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G135" t="s">
         <v>146</v>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
@@ -10906,7 +10906,7 @@
         <v>345</v>
       </c>
       <c r="F136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G136" t="s">
         <v>146</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -10932,7 +10932,7 @@
         <v>345</v>
       </c>
       <c r="F137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G137" t="s">
         <v>146</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
@@ -10958,7 +10958,7 @@
         <v>345</v>
       </c>
       <c r="F138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G138" t="s">
         <v>146</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
@@ -10984,7 +10984,7 @@
         <v>345</v>
       </c>
       <c r="F139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G139" t="s">
         <v>146</v>
@@ -11010,7 +11010,7 @@
         <v>345</v>
       </c>
       <c r="F140" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G140" t="s">
         <v>146</v>
@@ -11036,7 +11036,7 @@
         <v>345</v>
       </c>
       <c r="F141" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -11062,7 +11062,7 @@
         <v>345</v>
       </c>
       <c r="F142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G142" t="s">
         <v>146</v>
@@ -11088,7 +11088,7 @@
         <v>345</v>
       </c>
       <c r="F143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G143" t="s">
         <v>146</v>
@@ -11114,7 +11114,7 @@
         <v>345</v>
       </c>
       <c r="F144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G144" t="s">
         <v>146</v>
@@ -11140,7 +11140,7 @@
         <v>345</v>
       </c>
       <c r="F145" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G145" t="s">
         <v>146</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B146" t="s">
         <v>20</v>
@@ -11166,7 +11166,7 @@
         <v>345</v>
       </c>
       <c r="F146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G146" t="s">
         <v>146</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
@@ -11192,7 +11192,7 @@
         <v>345</v>
       </c>
       <c r="F147" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G147" t="s">
         <v>146</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B148" t="s">
         <v>20</v>
@@ -11218,7 +11218,7 @@
         <v>345</v>
       </c>
       <c r="F148" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G148" t="s">
         <v>146</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B149" t="s">
         <v>20</v>
@@ -11244,7 +11244,7 @@
         <v>345</v>
       </c>
       <c r="F149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G149" t="s">
         <v>146</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
@@ -11270,7 +11270,7 @@
         <v>345</v>
       </c>
       <c r="F150" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G150" t="s">
         <v>146</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
@@ -11296,7 +11296,7 @@
         <v>345</v>
       </c>
       <c r="F151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G151" t="s">
         <v>146</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
@@ -11322,7 +11322,7 @@
         <v>345</v>
       </c>
       <c r="F152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G152" t="s">
         <v>146</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
@@ -11348,7 +11348,7 @@
         <v>345</v>
       </c>
       <c r="F153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G153" t="s">
         <v>146</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
@@ -11374,7 +11374,7 @@
         <v>345</v>
       </c>
       <c r="F154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G154" t="s">
         <v>146</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
@@ -11400,7 +11400,7 @@
         <v>345</v>
       </c>
       <c r="F155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G155" t="s">
         <v>146</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
@@ -11426,7 +11426,7 @@
         <v>345</v>
       </c>
       <c r="F156" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G156" t="s">
         <v>146</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
@@ -11452,7 +11452,7 @@
         <v>345</v>
       </c>
       <c r="F157" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G157" t="s">
         <v>146</v>
@@ -11478,7 +11478,7 @@
         <v>345</v>
       </c>
       <c r="F158" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G158" t="s">
         <v>146</v>
@@ -11504,7 +11504,7 @@
         <v>345</v>
       </c>
       <c r="F159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G159" t="s">
         <v>146</v>
@@ -11530,7 +11530,7 @@
         <v>345</v>
       </c>
       <c r="F160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G160" t="s">
         <v>146</v>
@@ -11556,7 +11556,7 @@
         <v>345</v>
       </c>
       <c r="F161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G161" t="s">
         <v>146</v>
@@ -11582,7 +11582,7 @@
         <v>345</v>
       </c>
       <c r="F162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G162" t="s">
         <v>146</v>
@@ -11608,7 +11608,7 @@
         <v>345</v>
       </c>
       <c r="F163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G163" t="s">
         <v>146</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
@@ -11634,7 +11634,7 @@
         <v>345</v>
       </c>
       <c r="F164" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G164" t="s">
         <v>146</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
@@ -11660,7 +11660,7 @@
         <v>345</v>
       </c>
       <c r="F165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G165" t="s">
         <v>146</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
@@ -11686,7 +11686,7 @@
         <v>345</v>
       </c>
       <c r="F166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G166" t="s">
         <v>146</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
@@ -11712,7 +11712,7 @@
         <v>345</v>
       </c>
       <c r="F167" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G167" t="s">
         <v>146</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
@@ -11738,7 +11738,7 @@
         <v>345</v>
       </c>
       <c r="F168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G168" t="s">
         <v>146</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
@@ -11764,7 +11764,7 @@
         <v>345</v>
       </c>
       <c r="F169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G169" t="s">
         <v>146</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
@@ -11790,7 +11790,7 @@
         <v>345</v>
       </c>
       <c r="F170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G170" t="s">
         <v>146</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
@@ -11816,7 +11816,7 @@
         <v>345</v>
       </c>
       <c r="F171" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G171" t="s">
         <v>146</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
@@ -11842,7 +11842,7 @@
         <v>345</v>
       </c>
       <c r="F172" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G172" t="s">
         <v>146</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
@@ -11868,7 +11868,7 @@
         <v>345</v>
       </c>
       <c r="F173" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G173" t="s">
         <v>146</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
@@ -11894,7 +11894,7 @@
         <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G174" t="s">
         <v>146</v>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
@@ -11920,7 +11920,7 @@
         <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G175" t="s">
         <v>146</v>
@@ -11946,7 +11946,7 @@
         <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G176" t="s">
         <v>146</v>
@@ -11972,7 +11972,7 @@
         <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G177" t="s">
         <v>146</v>
@@ -11998,7 +11998,7 @@
         <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G178" t="s">
         <v>146</v>
@@ -12024,7 +12024,7 @@
         <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G179" t="s">
         <v>146</v>
@@ -12050,7 +12050,7 @@
         <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G180" t="s">
         <v>146</v>
@@ -12076,7 +12076,7 @@
         <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G181" t="s">
         <v>146</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B182" t="s">
         <v>20</v>
@@ -12102,7 +12102,7 @@
         <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G182" t="s">
         <v>146</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
@@ -12128,7 +12128,7 @@
         <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G183" t="s">
         <v>146</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B184" t="s">
         <v>20</v>
@@ -12154,7 +12154,7 @@
         <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G184" t="s">
         <v>146</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
@@ -12180,7 +12180,7 @@
         <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G185" t="s">
         <v>146</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B186" t="s">
         <v>20</v>
@@ -12206,7 +12206,7 @@
         <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G186" t="s">
         <v>146</v>
@@ -12217,7 +12217,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
@@ -12232,7 +12232,7 @@
         <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G187" t="s">
         <v>146</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
@@ -12258,7 +12258,7 @@
         <v>345</v>
       </c>
       <c r="F188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G188" t="s">
         <v>146</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B189" t="s">
         <v>20</v>
@@ -12284,7 +12284,7 @@
         <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G189" t="s">
         <v>146</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B190" t="s">
         <v>20</v>
@@ -12310,7 +12310,7 @@
         <v>345</v>
       </c>
       <c r="F190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G190" t="s">
         <v>146</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -12336,7 +12336,7 @@
         <v>345</v>
       </c>
       <c r="F191" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G191" t="s">
         <v>146</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
@@ -12362,7 +12362,7 @@
         <v>345</v>
       </c>
       <c r="F192" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G192" t="s">
         <v>146</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -12388,7 +12388,7 @@
         <v>345</v>
       </c>
       <c r="F193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G193" t="s">
         <v>146</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B194" t="s">
         <v>20</v>
@@ -12414,7 +12414,7 @@
         <v>345</v>
       </c>
       <c r="F194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G194" t="s">
         <v>146</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B195" t="s">
         <v>20</v>
@@ -12440,7 +12440,7 @@
         <v>345</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G195" t="s">
         <v>146</v>
@@ -12451,7 +12451,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B196" t="s">
         <v>20</v>
@@ -12466,7 +12466,7 @@
         <v>345</v>
       </c>
       <c r="F196" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G196" t="s">
         <v>146</v>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B197" t="s">
         <v>20</v>
@@ -12492,7 +12492,7 @@
         <v>345</v>
       </c>
       <c r="F197" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G197" t="s">
         <v>146</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
@@ -12518,7 +12518,7 @@
         <v>345</v>
       </c>
       <c r="F198" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G198" t="s">
         <v>146</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
         <v>20</v>
@@ -12544,7 +12544,7 @@
         <v>345</v>
       </c>
       <c r="F199" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G199" t="s">
         <v>146</v>
@@ -12570,7 +12570,7 @@
         <v>345</v>
       </c>
       <c r="F200" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G200" t="s">
         <v>146</v>
@@ -12596,7 +12596,7 @@
         <v>345</v>
       </c>
       <c r="F201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G201" t="s">
         <v>146</v>
@@ -12622,7 +12622,7 @@
         <v>345</v>
       </c>
       <c r="F202" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G202" t="s">
         <v>146</v>
@@ -12648,7 +12648,7 @@
         <v>345</v>
       </c>
       <c r="F203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G203" t="s">
         <v>146</v>
@@ -12674,7 +12674,7 @@
         <v>345</v>
       </c>
       <c r="F204" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G204" t="s">
         <v>146</v>
@@ -12700,7 +12700,7 @@
         <v>345</v>
       </c>
       <c r="F205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G205" t="s">
         <v>146</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B206" t="s">
         <v>20</v>
@@ -12726,7 +12726,7 @@
         <v>345</v>
       </c>
       <c r="F206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G206" t="s">
         <v>146</v>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
@@ -12752,7 +12752,7 @@
         <v>345</v>
       </c>
       <c r="F207" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G207" t="s">
         <v>146</v>
@@ -12763,7 +12763,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B208" t="s">
         <v>20</v>
@@ -12778,7 +12778,7 @@
         <v>345</v>
       </c>
       <c r="F208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G208" t="s">
         <v>146</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
@@ -12804,7 +12804,7 @@
         <v>345</v>
       </c>
       <c r="F209" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G209" t="s">
         <v>146</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B210" t="s">
         <v>20</v>
@@ -12830,7 +12830,7 @@
         <v>345</v>
       </c>
       <c r="F210" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G210" t="s">
         <v>146</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B211" t="s">
         <v>20</v>
@@ -12856,7 +12856,7 @@
         <v>345</v>
       </c>
       <c r="F211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G211" t="s">
         <v>146</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
@@ -12882,7 +12882,7 @@
         <v>345</v>
       </c>
       <c r="F212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G212" t="s">
         <v>146</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
@@ -12908,7 +12908,7 @@
         <v>345</v>
       </c>
       <c r="F213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G213" t="s">
         <v>146</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B214" t="s">
         <v>20</v>
@@ -12934,7 +12934,7 @@
         <v>345</v>
       </c>
       <c r="F214" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G214" t="s">
         <v>146</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B215" t="s">
         <v>20</v>
@@ -12960,7 +12960,7 @@
         <v>345</v>
       </c>
       <c r="F215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G215" t="s">
         <v>146</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B216" t="s">
         <v>20</v>
@@ -12986,7 +12986,7 @@
         <v>345</v>
       </c>
       <c r="F216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G216" t="s">
         <v>146</v>
@@ -12997,7 +12997,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B217" t="s">
         <v>20</v>
@@ -13012,7 +13012,7 @@
         <v>345</v>
       </c>
       <c r="F217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G217" t="s">
         <v>146</v>
@@ -13038,7 +13038,7 @@
         <v>345</v>
       </c>
       <c r="F218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G218" t="s">
         <v>146</v>
@@ -13064,7 +13064,7 @@
         <v>345</v>
       </c>
       <c r="F219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G219" t="s">
         <v>146</v>
@@ -13090,7 +13090,7 @@
         <v>345</v>
       </c>
       <c r="F220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G220" t="s">
         <v>146</v>
@@ -13116,7 +13116,7 @@
         <v>345</v>
       </c>
       <c r="F221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G221" t="s">
         <v>146</v>
@@ -13142,7 +13142,7 @@
         <v>345</v>
       </c>
       <c r="F222" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G222" t="s">
         <v>146</v>
@@ -13168,7 +13168,7 @@
         <v>345</v>
       </c>
       <c r="F223" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G223" t="s">
         <v>146</v>
@@ -13179,7 +13179,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B224" t="s">
         <v>20</v>
@@ -13194,7 +13194,7 @@
         <v>345</v>
       </c>
       <c r="F224" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G224" t="s">
         <v>146</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B225" t="s">
         <v>20</v>
@@ -13220,7 +13220,7 @@
         <v>345</v>
       </c>
       <c r="F225" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G225" t="s">
         <v>146</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B226" t="s">
         <v>20</v>
@@ -13246,7 +13246,7 @@
         <v>345</v>
       </c>
       <c r="F226" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G226" t="s">
         <v>146</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
@@ -13272,7 +13272,7 @@
         <v>345</v>
       </c>
       <c r="F227" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G227" t="s">
         <v>146</v>
@@ -13283,7 +13283,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B228" t="s">
         <v>20</v>
@@ -13298,7 +13298,7 @@
         <v>345</v>
       </c>
       <c r="F228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G228" t="s">
         <v>146</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B229" t="s">
         <v>20</v>
@@ -13324,7 +13324,7 @@
         <v>345</v>
       </c>
       <c r="F229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G229" t="s">
         <v>146</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B230" t="s">
         <v>20</v>
@@ -13350,7 +13350,7 @@
         <v>345</v>
       </c>
       <c r="F230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G230" t="s">
         <v>146</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
         <v>20</v>
@@ -13376,7 +13376,7 @@
         <v>345</v>
       </c>
       <c r="F231" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G231" t="s">
         <v>146</v>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B232" t="s">
         <v>20</v>
@@ -13402,7 +13402,7 @@
         <v>345</v>
       </c>
       <c r="F232" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G232" t="s">
         <v>146</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B233" t="s">
         <v>20</v>
@@ -13428,7 +13428,7 @@
         <v>345</v>
       </c>
       <c r="F233" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G233" t="s">
         <v>146</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
@@ -13454,7 +13454,7 @@
         <v>345</v>
       </c>
       <c r="F234" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G234" t="s">
         <v>146</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B235" t="s">
         <v>20</v>
@@ -13480,7 +13480,7 @@
         <v>345</v>
       </c>
       <c r="F235" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G235" t="s">
         <v>146</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B236" t="s">
         <v>20</v>
@@ -13506,7 +13506,7 @@
         <v>345</v>
       </c>
       <c r="F236" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G236" t="s">
         <v>146</v>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B237" t="s">
         <v>20</v>
@@ -13532,7 +13532,7 @@
         <v>345</v>
       </c>
       <c r="F237" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G237" t="s">
         <v>146</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
@@ -13558,7 +13558,7 @@
         <v>345</v>
       </c>
       <c r="F238" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G238" t="s">
         <v>146</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B239" t="s">
         <v>20</v>
@@ -13584,7 +13584,7 @@
         <v>345</v>
       </c>
       <c r="F239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G239" t="s">
         <v>146</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
@@ -13610,7 +13610,7 @@
         <v>345</v>
       </c>
       <c r="F240" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G240" t="s">
         <v>146</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
@@ -13636,7 +13636,7 @@
         <v>345</v>
       </c>
       <c r="F241" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G241" t="s">
         <v>146</v>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B242" t="s">
         <v>20</v>
@@ -13662,7 +13662,7 @@
         <v>345</v>
       </c>
       <c r="F242" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G242" t="s">
         <v>146</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B243" t="s">
         <v>20</v>
@@ -13688,7 +13688,7 @@
         <v>345</v>
       </c>
       <c r="F243" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G243" t="s">
         <v>146</v>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B244" t="s">
         <v>20</v>
@@ -13714,7 +13714,7 @@
         <v>345</v>
       </c>
       <c r="F244" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G244" t="s">
         <v>146</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
@@ -13740,7 +13740,7 @@
         <v>345</v>
       </c>
       <c r="F245" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G245" t="s">
         <v>146</v>
@@ -13751,7 +13751,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B246" t="s">
         <v>20</v>
@@ -13766,7 +13766,7 @@
         <v>345</v>
       </c>
       <c r="F246" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G246" t="s">
         <v>146</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B247" t="s">
         <v>20</v>
@@ -13792,7 +13792,7 @@
         <v>345</v>
       </c>
       <c r="F247" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G247" t="s">
         <v>146</v>
@@ -13818,7 +13818,7 @@
         <v>345</v>
       </c>
       <c r="F248" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G248" t="s">
         <v>146</v>
@@ -13844,7 +13844,7 @@
         <v>345</v>
       </c>
       <c r="F249" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G249" t="s">
         <v>146</v>
@@ -13870,7 +13870,7 @@
         <v>345</v>
       </c>
       <c r="F250" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G250" t="s">
         <v>146</v>
@@ -13896,7 +13896,7 @@
         <v>345</v>
       </c>
       <c r="F251" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G251" t="s">
         <v>146</v>
@@ -13922,7 +13922,7 @@
         <v>345</v>
       </c>
       <c r="F252" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G252" t="s">
         <v>146</v>
@@ -13948,7 +13948,7 @@
         <v>345</v>
       </c>
       <c r="F253" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G253" t="s">
         <v>146</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B254" t="s">
         <v>20</v>
@@ -13974,7 +13974,7 @@
         <v>345</v>
       </c>
       <c r="F254" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G254" t="s">
         <v>146</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B255" t="s">
         <v>20</v>
@@ -14000,7 +14000,7 @@
         <v>345</v>
       </c>
       <c r="F255" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G255" t="s">
         <v>146</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
@@ -14026,7 +14026,7 @@
         <v>345</v>
       </c>
       <c r="F256" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G256" t="s">
         <v>146</v>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B257" t="s">
         <v>20</v>
@@ -14052,7 +14052,7 @@
         <v>345</v>
       </c>
       <c r="F257" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G257" t="s">
         <v>146</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
@@ -14078,7 +14078,7 @@
         <v>345</v>
       </c>
       <c r="F258" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G258" t="s">
         <v>146</v>
@@ -14089,7 +14089,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B259" t="s">
         <v>20</v>
@@ -14104,7 +14104,7 @@
         <v>345</v>
       </c>
       <c r="F259" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G259" t="s">
         <v>146</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B260" t="s">
         <v>20</v>
@@ -14130,7 +14130,7 @@
         <v>345</v>
       </c>
       <c r="F260" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G260" t="s">
         <v>146</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B261" t="s">
         <v>20</v>
@@ -14156,7 +14156,7 @@
         <v>345</v>
       </c>
       <c r="F261" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G261" t="s">
         <v>146</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B262" t="s">
         <v>20</v>
@@ -14182,7 +14182,7 @@
         <v>345</v>
       </c>
       <c r="F262" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G262" t="s">
         <v>146</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B263" t="s">
         <v>20</v>
@@ -14208,7 +14208,7 @@
         <v>345</v>
       </c>
       <c r="F263" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G263" t="s">
         <v>146</v>
@@ -14219,7 +14219,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
@@ -14234,7 +14234,7 @@
         <v>345</v>
       </c>
       <c r="F264" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G264" t="s">
         <v>146</v>
@@ -14245,7 +14245,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B265" t="s">
         <v>20</v>
@@ -14260,7 +14260,7 @@
         <v>345</v>
       </c>
       <c r="F265" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G265" t="s">
         <v>146</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B266" t="s">
         <v>20</v>
@@ -14286,7 +14286,7 @@
         <v>345</v>
       </c>
       <c r="F266" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G266" t="s">
         <v>146</v>
@@ -14297,7 +14297,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B267" t="s">
         <v>20</v>
@@ -14312,7 +14312,7 @@
         <v>345</v>
       </c>
       <c r="F267" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G267" t="s">
         <v>146</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B268" t="s">
         <v>20</v>
@@ -14338,7 +14338,7 @@
         <v>345</v>
       </c>
       <c r="F268" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G268" t="s">
         <v>146</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B269" t="s">
         <v>20</v>
@@ -14364,7 +14364,7 @@
         <v>345</v>
       </c>
       <c r="F269" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G269" t="s">
         <v>146</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B270" t="s">
         <v>20</v>
@@ -14390,7 +14390,7 @@
         <v>345</v>
       </c>
       <c r="F270" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G270" t="s">
         <v>146</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B271" t="s">
         <v>20</v>
@@ -14416,7 +14416,7 @@
         <v>345</v>
       </c>
       <c r="F271" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G271" t="s">
         <v>146</v>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B272" t="s">
         <v>20</v>
@@ -14442,7 +14442,7 @@
         <v>345</v>
       </c>
       <c r="F272" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G272" t="s">
         <v>146</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B273" t="s">
         <v>20</v>
@@ -14468,7 +14468,7 @@
         <v>345</v>
       </c>
       <c r="F273" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G273" t="s">
         <v>146</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B274" t="s">
         <v>20</v>
@@ -14494,7 +14494,7 @@
         <v>345</v>
       </c>
       <c r="F274" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G274" t="s">
         <v>146</v>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B275" t="s">
         <v>20</v>
@@ -14520,7 +14520,7 @@
         <v>345</v>
       </c>
       <c r="F275" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G275" t="s">
         <v>146</v>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B276" t="s">
         <v>20</v>
@@ -14546,7 +14546,7 @@
         <v>345</v>
       </c>
       <c r="F276" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G276" t="s">
         <v>146</v>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B277" t="s">
         <v>20</v>
@@ -14572,7 +14572,7 @@
         <v>345</v>
       </c>
       <c r="F277" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G277" t="s">
         <v>146</v>
@@ -14583,7 +14583,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="B278" t="s">
         <v>20</v>
@@ -14598,7 +14598,7 @@
         <v>345</v>
       </c>
       <c r="F278" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G278" t="s">
         <v>146</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="B279" t="s">
         <v>20</v>
@@ -14624,7 +14624,7 @@
         <v>345</v>
       </c>
       <c r="F279" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G279" t="s">
         <v>146</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="B280" t="s">
         <v>20</v>
@@ -14650,7 +14650,7 @@
         <v>345</v>
       </c>
       <c r="F280" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G280" t="s">
         <v>146</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="B281" t="s">
         <v>20</v>
@@ -14676,7 +14676,7 @@
         <v>345</v>
       </c>
       <c r="F281" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G281" t="s">
         <v>146</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="B282" t="s">
         <v>20</v>
@@ -14702,7 +14702,7 @@
         <v>345</v>
       </c>
       <c r="F282" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G282" t="s">
         <v>146</v>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="B283" t="s">
         <v>20</v>
@@ -14728,7 +14728,7 @@
         <v>345</v>
       </c>
       <c r="F283" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G283" t="s">
         <v>146</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B284" t="s">
         <v>20</v>
@@ -14754,7 +14754,7 @@
         <v>345</v>
       </c>
       <c r="F284" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G284" t="s">
         <v>146</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B285" t="s">
         <v>20</v>
@@ -14780,7 +14780,7 @@
         <v>345</v>
       </c>
       <c r="F285" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G285" t="s">
         <v>146</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B286" t="s">
         <v>20</v>
@@ -14806,7 +14806,7 @@
         <v>345</v>
       </c>
       <c r="F286" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G286" t="s">
         <v>146</v>
@@ -14817,7 +14817,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B287" t="s">
         <v>20</v>
@@ -14832,7 +14832,7 @@
         <v>345</v>
       </c>
       <c r="F287" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G287" t="s">
         <v>146</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B288" t="s">
         <v>20</v>
@@ -14858,7 +14858,7 @@
         <v>345</v>
       </c>
       <c r="F288" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G288" t="s">
         <v>146</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B289" t="s">
         <v>20</v>
@@ -14884,7 +14884,7 @@
         <v>345</v>
       </c>
       <c r="F289" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G289" t="s">
         <v>146</v>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="B290" t="s">
         <v>20</v>
@@ -14910,7 +14910,7 @@
         <v>345</v>
       </c>
       <c r="F290" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G290" t="s">
         <v>146</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="B291" t="s">
         <v>20</v>
@@ -14936,7 +14936,7 @@
         <v>345</v>
       </c>
       <c r="F291" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G291" t="s">
         <v>146</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="B292" t="s">
         <v>20</v>
@@ -14962,7 +14962,7 @@
         <v>345</v>
       </c>
       <c r="F292" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G292" t="s">
         <v>146</v>
@@ -14973,7 +14973,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="B293" t="s">
         <v>20</v>
@@ -14988,7 +14988,7 @@
         <v>345</v>
       </c>
       <c r="F293" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G293" t="s">
         <v>146</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="B294" t="s">
         <v>20</v>
@@ -15014,7 +15014,7 @@
         <v>345</v>
       </c>
       <c r="F294" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G294" t="s">
         <v>146</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
-        <v>364</v>
+        <v>56</v>
       </c>
       <c r="B295" t="s">
         <v>20</v>
@@ -15040,7 +15040,7 @@
         <v>345</v>
       </c>
       <c r="F295" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G295" t="s">
         <v>146</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="B296" t="s">
         <v>20</v>
@@ -15066,7 +15066,7 @@
         <v>345</v>
       </c>
       <c r="F296" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G296" t="s">
         <v>146</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="B297" t="s">
         <v>20</v>
@@ -15092,7 +15092,7 @@
         <v>345</v>
       </c>
       <c r="F297" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G297" t="s">
         <v>146</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="B298" t="s">
         <v>20</v>
@@ -15118,7 +15118,7 @@
         <v>345</v>
       </c>
       <c r="F298" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G298" t="s">
         <v>146</v>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="B299" t="s">
         <v>20</v>
@@ -15144,7 +15144,7 @@
         <v>345</v>
       </c>
       <c r="F299" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G299" t="s">
         <v>146</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="B300" t="s">
         <v>20</v>
@@ -15170,7 +15170,7 @@
         <v>345</v>
       </c>
       <c r="F300" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G300" t="s">
         <v>146</v>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
-        <v>364</v>
+        <v>57</v>
       </c>
       <c r="B301" t="s">
         <v>20</v>
@@ -15196,7 +15196,7 @@
         <v>345</v>
       </c>
       <c r="F301" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G301" t="s">
         <v>146</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B302" t="s">
         <v>20</v>
@@ -15222,7 +15222,7 @@
         <v>345</v>
       </c>
       <c r="F302" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G302" t="s">
         <v>146</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B303" t="s">
         <v>20</v>
@@ -15248,7 +15248,7 @@
         <v>345</v>
       </c>
       <c r="F303" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G303" t="s">
         <v>146</v>
@@ -15259,7 +15259,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B304" t="s">
         <v>20</v>
@@ -15274,7 +15274,7 @@
         <v>345</v>
       </c>
       <c r="F304" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G304" t="s">
         <v>146</v>
@@ -15285,7 +15285,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B305" t="s">
         <v>20</v>
@@ -15300,7 +15300,7 @@
         <v>345</v>
       </c>
       <c r="F305" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G305" t="s">
         <v>146</v>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B306" t="s">
         <v>20</v>
@@ -15326,7 +15326,7 @@
         <v>345</v>
       </c>
       <c r="F306" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G306" t="s">
         <v>146</v>
@@ -15337,7 +15337,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B307" t="s">
         <v>20</v>
@@ -15352,7 +15352,7 @@
         <v>345</v>
       </c>
       <c r="F307" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G307" t="s">
         <v>146</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B308" t="s">
         <v>20</v>
@@ -15378,7 +15378,7 @@
         <v>345</v>
       </c>
       <c r="F308" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G308" t="s">
         <v>146</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B309" t="s">
         <v>20</v>
@@ -15404,7 +15404,7 @@
         <v>345</v>
       </c>
       <c r="F309" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G309" t="s">
         <v>146</v>
@@ -15415,7 +15415,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B310" t="s">
         <v>20</v>
@@ -15430,7 +15430,7 @@
         <v>345</v>
       </c>
       <c r="F310" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G310" t="s">
         <v>146</v>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B311" t="s">
         <v>20</v>
@@ -15456,7 +15456,7 @@
         <v>345</v>
       </c>
       <c r="F311" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G311" t="s">
         <v>146</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B312" t="s">
         <v>20</v>
@@ -15482,7 +15482,7 @@
         <v>345</v>
       </c>
       <c r="F312" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G312" t="s">
         <v>146</v>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B313" t="s">
         <v>20</v>
@@ -15508,7 +15508,7 @@
         <v>345</v>
       </c>
       <c r="F313" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G313" t="s">
         <v>146</v>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B314" t="s">
         <v>20</v>
@@ -15534,7 +15534,7 @@
         <v>345</v>
       </c>
       <c r="F314" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G314" t="s">
         <v>146</v>
@@ -15545,7 +15545,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B315" t="s">
         <v>20</v>
@@ -15560,7 +15560,7 @@
         <v>345</v>
       </c>
       <c r="F315" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G315" t="s">
         <v>146</v>
@@ -15571,7 +15571,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B316" t="s">
         <v>20</v>
@@ -15586,7 +15586,7 @@
         <v>345</v>
       </c>
       <c r="F316" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G316" t="s">
         <v>146</v>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B317" t="s">
         <v>20</v>
@@ -15612,7 +15612,7 @@
         <v>345</v>
       </c>
       <c r="F317" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G317" t="s">
         <v>146</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B318" t="s">
         <v>20</v>
@@ -15638,7 +15638,7 @@
         <v>345</v>
       </c>
       <c r="F318" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G318" t="s">
         <v>146</v>
@@ -15649,7 +15649,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B319" t="s">
         <v>20</v>
@@ -15664,7 +15664,7 @@
         <v>345</v>
       </c>
       <c r="F319" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G319" t="s">
         <v>146</v>
@@ -15675,7 +15675,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B320" t="s">
         <v>20</v>
@@ -15690,7 +15690,7 @@
         <v>345</v>
       </c>
       <c r="F320" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G320" t="s">
         <v>146</v>
@@ -15701,7 +15701,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B321" t="s">
         <v>20</v>
@@ -15716,7 +15716,7 @@
         <v>345</v>
       </c>
       <c r="F321" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G321" t="s">
         <v>146</v>
@@ -15727,7 +15727,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B322" t="s">
         <v>20</v>
@@ -15742,7 +15742,7 @@
         <v>345</v>
       </c>
       <c r="F322" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G322" t="s">
         <v>146</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B323" t="s">
         <v>20</v>
@@ -15768,7 +15768,7 @@
         <v>345</v>
       </c>
       <c r="F323" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G323" t="s">
         <v>146</v>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B324" t="s">
         <v>20</v>
@@ -15794,7 +15794,7 @@
         <v>345</v>
       </c>
       <c r="F324" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G324" t="s">
         <v>146</v>
@@ -15805,7 +15805,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B325" t="s">
         <v>20</v>
@@ -15820,7 +15820,7 @@
         <v>345</v>
       </c>
       <c r="F325" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G325" t="s">
         <v>146</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B326" t="s">
         <v>20</v>
@@ -15846,7 +15846,7 @@
         <v>345</v>
       </c>
       <c r="F326" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G326" t="s">
         <v>146</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B327" t="s">
         <v>20</v>
@@ -15872,7 +15872,7 @@
         <v>345</v>
       </c>
       <c r="F327" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G327" t="s">
         <v>146</v>
@@ -15883,7 +15883,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B328" t="s">
         <v>20</v>
@@ -15898,7 +15898,7 @@
         <v>345</v>
       </c>
       <c r="F328" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G328" t="s">
         <v>146</v>
@@ -15909,7 +15909,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B329" t="s">
         <v>20</v>
@@ -15924,7 +15924,7 @@
         <v>345</v>
       </c>
       <c r="F329" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G329" t="s">
         <v>146</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B330" t="s">
         <v>20</v>
@@ -15950,7 +15950,7 @@
         <v>345</v>
       </c>
       <c r="F330" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G330" t="s">
         <v>146</v>
@@ -15961,7 +15961,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B331" t="s">
         <v>20</v>
@@ -15976,7 +15976,7 @@
         <v>345</v>
       </c>
       <c r="F331" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G331" t="s">
         <v>146</v>
@@ -15987,7 +15987,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B332" t="s">
         <v>20</v>
@@ -16002,7 +16002,7 @@
         <v>345</v>
       </c>
       <c r="F332" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G332" t="s">
         <v>146</v>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B333" t="s">
         <v>20</v>
@@ -16028,7 +16028,7 @@
         <v>345</v>
       </c>
       <c r="F333" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G333" t="s">
         <v>146</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B334" t="s">
         <v>20</v>
@@ -16054,7 +16054,7 @@
         <v>345</v>
       </c>
       <c r="F334" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G334" t="s">
         <v>146</v>
@@ -16065,7 +16065,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B335" t="s">
         <v>20</v>
@@ -16080,7 +16080,7 @@
         <v>345</v>
       </c>
       <c r="F335" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G335" t="s">
         <v>146</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B336" t="s">
         <v>20</v>
@@ -16106,7 +16106,7 @@
         <v>345</v>
       </c>
       <c r="F336" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G336" t="s">
         <v>146</v>
@@ -16117,7 +16117,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B337" t="s">
         <v>20</v>
@@ -16132,7 +16132,7 @@
         <v>345</v>
       </c>
       <c r="F337" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G337" t="s">
         <v>146</v>
@@ -16143,7 +16143,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="B338" t="s">
         <v>20</v>
@@ -16158,7 +16158,7 @@
         <v>345</v>
       </c>
       <c r="F338" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G338" t="s">
         <v>146</v>
@@ -16169,7 +16169,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="B339" t="s">
         <v>20</v>
@@ -16184,7 +16184,7 @@
         <v>345</v>
       </c>
       <c r="F339" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G339" t="s">
         <v>146</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="B340" t="s">
         <v>20</v>
@@ -16210,7 +16210,7 @@
         <v>345</v>
       </c>
       <c r="F340" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G340" t="s">
         <v>146</v>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="B341" t="s">
         <v>20</v>
@@ -16236,7 +16236,7 @@
         <v>345</v>
       </c>
       <c r="F341" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G341" t="s">
         <v>146</v>
@@ -16247,7 +16247,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="B342" t="s">
         <v>20</v>
@@ -16262,7 +16262,7 @@
         <v>345</v>
       </c>
       <c r="F342" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G342" t="s">
         <v>146</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="B343" t="s">
         <v>20</v>
@@ -16288,7 +16288,7 @@
         <v>345</v>
       </c>
       <c r="F343" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G343" t="s">
         <v>146</v>
@@ -16299,7 +16299,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B344" t="s">
         <v>20</v>
@@ -16314,7 +16314,7 @@
         <v>345</v>
       </c>
       <c r="F344" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G344" t="s">
         <v>146</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B345" t="s">
         <v>20</v>
@@ -16340,7 +16340,7 @@
         <v>345</v>
       </c>
       <c r="F345" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G345" t="s">
         <v>146</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B346" t="s">
         <v>20</v>
@@ -16366,7 +16366,7 @@
         <v>345</v>
       </c>
       <c r="F346" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G346" t="s">
         <v>146</v>
@@ -16377,7 +16377,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B347" t="s">
         <v>20</v>
@@ -16392,7 +16392,7 @@
         <v>345</v>
       </c>
       <c r="F347" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G347" t="s">
         <v>146</v>
@@ -16403,7 +16403,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B348" t="s">
         <v>20</v>
@@ -16418,7 +16418,7 @@
         <v>345</v>
       </c>
       <c r="F348" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G348" t="s">
         <v>146</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B349" t="s">
         <v>20</v>
@@ -16444,7 +16444,7 @@
         <v>345</v>
       </c>
       <c r="F349" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G349" t="s">
         <v>146</v>
@@ -16455,7 +16455,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="B350" t="s">
         <v>20</v>
@@ -16470,7 +16470,7 @@
         <v>345</v>
       </c>
       <c r="F350" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G350" t="s">
         <v>146</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="B351" t="s">
         <v>20</v>
@@ -16496,7 +16496,7 @@
         <v>345</v>
       </c>
       <c r="F351" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G351" t="s">
         <v>146</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="B352" t="s">
         <v>20</v>
@@ -16522,7 +16522,7 @@
         <v>345</v>
       </c>
       <c r="F352" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G352" t="s">
         <v>146</v>
@@ -16533,7 +16533,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="B353" t="s">
         <v>20</v>
@@ -16548,7 +16548,7 @@
         <v>345</v>
       </c>
       <c r="F353" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G353" t="s">
         <v>146</v>
@@ -16559,7 +16559,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="B354" t="s">
         <v>20</v>
@@ -16574,7 +16574,7 @@
         <v>345</v>
       </c>
       <c r="F354" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G354" t="s">
         <v>146</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>369</v>
+        <v>59</v>
       </c>
       <c r="B355" t="s">
         <v>20</v>
@@ -16600,7 +16600,7 @@
         <v>345</v>
       </c>
       <c r="F355" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G355" t="s">
         <v>146</v>
@@ -16611,7 +16611,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B356" t="s">
         <v>20</v>
@@ -16626,7 +16626,7 @@
         <v>345</v>
       </c>
       <c r="F356" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G356" t="s">
         <v>146</v>
@@ -16637,7 +16637,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B357" t="s">
         <v>20</v>
@@ -16652,7 +16652,7 @@
         <v>345</v>
       </c>
       <c r="F357" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G357" t="s">
         <v>146</v>
@@ -16663,7 +16663,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B358" t="s">
         <v>20</v>
@@ -16678,7 +16678,7 @@
         <v>345</v>
       </c>
       <c r="F358" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G358" t="s">
         <v>146</v>
@@ -16689,7 +16689,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B359" t="s">
         <v>20</v>
@@ -16704,7 +16704,7 @@
         <v>345</v>
       </c>
       <c r="F359" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G359" t="s">
         <v>146</v>
@@ -16715,7 +16715,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B360" t="s">
         <v>20</v>
@@ -16730,7 +16730,7 @@
         <v>345</v>
       </c>
       <c r="F360" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G360" t="s">
         <v>146</v>
@@ -16741,7 +16741,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B361" t="s">
         <v>20</v>
@@ -16756,7 +16756,7 @@
         <v>345</v>
       </c>
       <c r="F361" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G361" t="s">
         <v>146</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B362" t="s">
         <v>20</v>
@@ -16782,7 +16782,7 @@
         <v>345</v>
       </c>
       <c r="F362" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G362" t="s">
         <v>146</v>
@@ -16793,7 +16793,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B363" t="s">
         <v>20</v>
@@ -16808,7 +16808,7 @@
         <v>345</v>
       </c>
       <c r="F363" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G363" t="s">
         <v>146</v>
@@ -16819,7 +16819,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B364" t="s">
         <v>20</v>
@@ -16834,7 +16834,7 @@
         <v>345</v>
       </c>
       <c r="F364" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G364" t="s">
         <v>146</v>
@@ -16845,7 +16845,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B365" t="s">
         <v>20</v>
@@ -16860,7 +16860,7 @@
         <v>345</v>
       </c>
       <c r="F365" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G365" t="s">
         <v>146</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B366" t="s">
         <v>20</v>
@@ -16886,7 +16886,7 @@
         <v>345</v>
       </c>
       <c r="F366" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G366" t="s">
         <v>146</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B367" t="s">
         <v>20</v>
@@ -16912,7 +16912,7 @@
         <v>345</v>
       </c>
       <c r="F367" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G367" t="s">
         <v>146</v>
@@ -16923,7 +16923,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B368" t="s">
         <v>20</v>
@@ -16938,7 +16938,7 @@
         <v>345</v>
       </c>
       <c r="F368" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G368" t="s">
         <v>146</v>
@@ -16949,7 +16949,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B369" t="s">
         <v>20</v>
@@ -16964,7 +16964,7 @@
         <v>345</v>
       </c>
       <c r="F369" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G369" t="s">
         <v>146</v>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B370" t="s">
         <v>20</v>
@@ -16990,7 +16990,7 @@
         <v>345</v>
       </c>
       <c r="F370" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G370" t="s">
         <v>146</v>
@@ -17001,7 +17001,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>20</v>
@@ -17016,7 +17016,7 @@
         <v>345</v>
       </c>
       <c r="F371" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G371" t="s">
         <v>146</v>
@@ -17027,7 +17027,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B372" t="s">
         <v>20</v>
@@ -17042,7 +17042,7 @@
         <v>345</v>
       </c>
       <c r="F372" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G372" t="s">
         <v>146</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B373" t="s">
         <v>20</v>
@@ -17068,7 +17068,7 @@
         <v>345</v>
       </c>
       <c r="F373" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G373" t="s">
         <v>146</v>
@@ -17079,7 +17079,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="B374" t="s">
         <v>20</v>
@@ -17094,7 +17094,7 @@
         <v>345</v>
       </c>
       <c r="F374" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G374" t="s">
         <v>146</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="B375" t="s">
         <v>20</v>
@@ -17120,7 +17120,7 @@
         <v>345</v>
       </c>
       <c r="F375" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G375" t="s">
         <v>146</v>
@@ -17131,7 +17131,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="B376" t="s">
         <v>20</v>
@@ -17146,7 +17146,7 @@
         <v>345</v>
       </c>
       <c r="F376" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G376" t="s">
         <v>146</v>
@@ -17157,7 +17157,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="B377" t="s">
         <v>20</v>
@@ -17172,7 +17172,7 @@
         <v>345</v>
       </c>
       <c r="F377" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G377" t="s">
         <v>146</v>
@@ -17183,7 +17183,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="B378" t="s">
         <v>20</v>
@@ -17198,7 +17198,7 @@
         <v>345</v>
       </c>
       <c r="F378" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G378" t="s">
         <v>146</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="B379" t="s">
         <v>20</v>
@@ -17224,7 +17224,7 @@
         <v>345</v>
       </c>
       <c r="F379" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G379" t="s">
         <v>146</v>
@@ -17250,7 +17250,7 @@
         <v>345</v>
       </c>
       <c r="F380" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G380" t="s">
         <v>146</v>
@@ -17276,7 +17276,7 @@
         <v>345</v>
       </c>
       <c r="F381" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G381" t="s">
         <v>146</v>
@@ -17302,7 +17302,7 @@
         <v>345</v>
       </c>
       <c r="F382" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G382" t="s">
         <v>146</v>
@@ -17328,7 +17328,7 @@
         <v>345</v>
       </c>
       <c r="F383" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G383" t="s">
         <v>146</v>
@@ -17354,7 +17354,7 @@
         <v>345</v>
       </c>
       <c r="F384" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G384" t="s">
         <v>146</v>
@@ -17380,7 +17380,7 @@
         <v>345</v>
       </c>
       <c r="F385" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G385" t="s">
         <v>146</v>
@@ -17391,7 +17391,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B386" t="s">
         <v>20</v>
@@ -17406,7 +17406,7 @@
         <v>345</v>
       </c>
       <c r="F386" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G386" t="s">
         <v>146</v>
@@ -17417,7 +17417,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B387" t="s">
         <v>20</v>
@@ -17432,7 +17432,7 @@
         <v>345</v>
       </c>
       <c r="F387" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G387" t="s">
         <v>146</v>
@@ -17443,7 +17443,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B388" t="s">
         <v>20</v>
@@ -17458,7 +17458,7 @@
         <v>345</v>
       </c>
       <c r="F388" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G388" t="s">
         <v>146</v>
@@ -17469,7 +17469,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B389" t="s">
         <v>20</v>
@@ -17484,7 +17484,7 @@
         <v>345</v>
       </c>
       <c r="F389" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G389" t="s">
         <v>146</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B390" t="s">
         <v>20</v>
@@ -17510,7 +17510,7 @@
         <v>345</v>
       </c>
       <c r="F390" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G390" t="s">
         <v>146</v>
@@ -17521,7 +17521,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B391" t="s">
         <v>20</v>
@@ -17536,7 +17536,7 @@
         <v>345</v>
       </c>
       <c r="F391" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G391" t="s">
         <v>146</v>
@@ -17547,7 +17547,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B392" t="s">
         <v>20</v>
@@ -17562,7 +17562,7 @@
         <v>345</v>
       </c>
       <c r="F392" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G392" t="s">
         <v>146</v>
@@ -17573,7 +17573,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B393" t="s">
         <v>20</v>
@@ -17588,7 +17588,7 @@
         <v>345</v>
       </c>
       <c r="F393" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G393" t="s">
         <v>146</v>
@@ -17599,7 +17599,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B394" t="s">
         <v>20</v>
@@ -17614,7 +17614,7 @@
         <v>345</v>
       </c>
       <c r="F394" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G394" t="s">
         <v>146</v>
@@ -17625,7 +17625,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B395" t="s">
         <v>20</v>
@@ -17640,7 +17640,7 @@
         <v>345</v>
       </c>
       <c r="F395" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G395" t="s">
         <v>146</v>
@@ -17651,7 +17651,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B396" t="s">
         <v>20</v>
@@ -17666,7 +17666,7 @@
         <v>345</v>
       </c>
       <c r="F396" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G396" t="s">
         <v>146</v>
@@ -17677,7 +17677,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="B397" t="s">
         <v>20</v>
@@ -17692,7 +17692,7 @@
         <v>345</v>
       </c>
       <c r="F397" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G397" t="s">
         <v>146</v>
@@ -18483,7 +18483,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B428" t="s">
         <v>20</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B429" t="s">
         <v>20</v>
@@ -18535,7 +18535,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B430" t="s">
         <v>20</v>
@@ -18561,7 +18561,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B431" t="s">
         <v>20</v>
@@ -18587,7 +18587,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B432" t="s">
         <v>20</v>
@@ -18613,7 +18613,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B433" t="s">
         <v>20</v>
@@ -18639,7 +18639,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B434" t="s">
         <v>20</v>
@@ -18665,7 +18665,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B435" t="s">
         <v>20</v>
@@ -18691,7 +18691,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B436" t="s">
         <v>20</v>
@@ -18717,7 +18717,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B437" t="s">
         <v>20</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B438" t="s">
         <v>20</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B439" t="s">
         <v>20</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B440" t="s">
         <v>20</v>
@@ -18821,7 +18821,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B441" t="s">
         <v>20</v>
@@ -18847,7 +18847,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B442" t="s">
         <v>20</v>
@@ -18873,7 +18873,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B443" t="s">
         <v>20</v>
@@ -18899,7 +18899,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B444" t="s">
         <v>20</v>
@@ -18925,7 +18925,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B445" t="s">
         <v>20</v>
@@ -18951,7 +18951,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B446" t="s">
         <v>20</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B447" t="s">
         <v>20</v>
@@ -19003,7 +19003,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B448" t="s">
         <v>20</v>
@@ -19029,7 +19029,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B449" t="s">
         <v>20</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B450" t="s">
         <v>20</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B451" t="s">
         <v>20</v>
@@ -19107,7 +19107,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B452" t="s">
         <v>20</v>
@@ -19133,7 +19133,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B453" t="s">
         <v>20</v>
@@ -19159,7 +19159,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B454" t="s">
         <v>20</v>
@@ -19185,7 +19185,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B455" t="s">
         <v>20</v>
@@ -19211,7 +19211,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B456" t="s">
         <v>20</v>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B457" t="s">
         <v>20</v>
@@ -19263,7 +19263,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B458" t="s">
         <v>20</v>
@@ -19289,7 +19289,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B459" t="s">
         <v>20</v>
@@ -19315,7 +19315,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B460" t="s">
         <v>20</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B461" t="s">
         <v>20</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B462" t="s">
         <v>20</v>
@@ -19393,7 +19393,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B463" t="s">
         <v>20</v>
@@ -19419,7 +19419,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B464" t="s">
         <v>20</v>
@@ -19445,7 +19445,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B465" t="s">
         <v>20</v>
@@ -19471,7 +19471,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B466" t="s">
         <v>20</v>
@@ -19497,7 +19497,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B467" t="s">
         <v>20</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B468" t="s">
         <v>20</v>
@@ -19549,7 +19549,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B469" t="s">
         <v>20</v>
@@ -20042,7 +20042,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H487"/>
+  <autoFilter ref="A1:H487">
+    <sortState ref="A2:H487">
+      <sortCondition ref="A1:A487"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26801,7 +26805,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B260" t="s">
         <v>20</v>
@@ -26827,7 +26831,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B261" t="s">
         <v>20</v>
@@ -26853,7 +26857,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B262" t="s">
         <v>20</v>
@@ -26879,7 +26883,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B263" t="s">
         <v>20</v>
@@ -26905,7 +26909,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
@@ -26931,7 +26935,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B265" t="s">
         <v>20</v>

--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-IP版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-IP版.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$H$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">黑龙江!$A$1:$H$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体育!$A$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">体育!$A$1:$H$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$H$487</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$H$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">娱乐!$A$1:$H$163</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9648" uniqueCount="379">
   <si>
     <t>频道</t>
   </si>
@@ -1187,6 +1187,14 @@
   </si>
   <si>
     <t>NEWTV怡伴健康</t>
+  </si>
+  <si>
+    <t>睛彩青少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/3221226508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -27798,7 +27806,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28309,7 +28317,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -28324,7 +28332,7 @@
         <v>318</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G20" t="s">
         <v>119</v>
@@ -28335,7 +28343,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -28350,7 +28358,7 @@
         <v>318</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G21" t="s">
         <v>119</v>
@@ -28361,7 +28369,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -28376,7 +28384,7 @@
         <v>318</v>
       </c>
       <c r="F22" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G22" t="s">
         <v>119</v>
@@ -28387,7 +28395,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -28402,7 +28410,7 @@
         <v>318</v>
       </c>
       <c r="F23" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G23" t="s">
         <v>119</v>
@@ -28413,7 +28421,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -28428,7 +28436,7 @@
         <v>318</v>
       </c>
       <c r="F24" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G24" t="s">
         <v>119</v>
@@ -28439,7 +28447,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>377</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -28454,7 +28462,7 @@
         <v>318</v>
       </c>
       <c r="F25" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G25" t="s">
         <v>119</v>
@@ -28465,7 +28473,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -28480,7 +28488,7 @@
         <v>318</v>
       </c>
       <c r="F26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G26" t="s">
         <v>119</v>
@@ -28491,7 +28499,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -28506,7 +28514,7 @@
         <v>318</v>
       </c>
       <c r="F27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
         <v>119</v>
@@ -28517,7 +28525,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -28532,7 +28540,7 @@
         <v>318</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G28" t="s">
         <v>119</v>
@@ -28543,7 +28551,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -28558,7 +28566,7 @@
         <v>318</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G29" t="s">
         <v>119</v>
@@ -28569,7 +28577,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -28584,7 +28592,7 @@
         <v>318</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G30" t="s">
         <v>119</v>
@@ -28595,7 +28603,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -28610,17 +28618,173 @@
         <v>318</v>
       </c>
       <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>318</v>
+      </c>
+      <c r="F32" t="s">
         <v>290</v>
       </c>
-      <c r="G31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" t="s">
+        <v>318</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" t="s">
+        <v>318</v>
+      </c>
+      <c r="F34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" t="s">
+        <v>318</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F37" t="s">
+        <v>290</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H31"/>
+  <autoFilter ref="A1:H37"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/直播源汇总文档/IPV6直播源汇总/黑龙江移动-IP版.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/黑龙江移动-IP版.xlsx
@@ -13,6 +13,7 @@
     <sheet name="地方" sheetId="4" r:id="rId4"/>
     <sheet name="体育" sheetId="5" r:id="rId5"/>
     <sheet name="娱乐" sheetId="6" r:id="rId6"/>
+    <sheet name="所有频道URL" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$H$31</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9648" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9848" uniqueCount="578">
   <si>
     <t>频道</t>
   </si>
@@ -1195,6 +1196,603 @@
   <si>
     <t>/3221226508</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226016/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226514/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226559/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225588/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226021/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226428/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226007/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226019/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225603/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226010/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225733/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226008/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225734/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225730/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226473/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226565/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225597/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225731/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226568/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226011/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226537/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226571/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225732/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226591/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226476/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225601/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226100/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225765/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225604/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226517/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226543/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226520/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226431/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225602/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225652/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226425/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225783/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225659/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226391/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226498/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225728/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226450/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226251/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226439/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225618/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226409/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226463/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225735/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226345/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226336/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225620/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226341/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226377/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225633/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226522/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226248/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226374/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226549/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226380/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226474/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225626/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226383/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226465/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225639/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226445/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226406/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225623/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226448/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226480/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226320/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225627/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226477/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226501/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225610/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226307/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226430/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226397/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226386/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225613/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226310/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226495/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226344/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226504/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225660/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225619/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226546/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226254/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225634/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226389/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225632/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226454/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225628/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226323/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225655/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226456/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226507/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225624/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226392/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225625/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226457/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225739/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226313/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226510/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226338/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226513/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225740/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226459/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226395/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225638/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226433/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225635/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226460/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226516/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226444/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225612/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226339/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226342/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226327/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226585/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226582/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226532/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226531/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226525/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226467/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226419/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226421/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226298/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226365/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226239/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226424/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226301/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226427/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226330/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226368/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226242/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226492/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226304/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226371/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226434/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226558/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225760/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226552/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225762/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226526/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226437/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226413/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226555/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226493/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226534/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226496/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226484/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226523/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226499/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226529/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226502/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226451/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226416/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226535/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226422/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226410/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226481/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225657/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225729/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225654/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225656/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225653/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226124/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226147/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226469/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226508/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226472/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226398/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225669/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225716/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225717/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225715/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225714/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225685/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225675/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225741/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225663/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225671/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225743/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225662/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225742/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225677/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225666/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225665/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225670/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225672/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221226505/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225674/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225676/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225668/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225664/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225683/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225680/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225719/index.m3u8</t>
+  </si>
+  <si>
+    <t>/ottrrs.hl.chinamobile.com/PLTV/88888888/224/3221225673/index.m3u8</t>
   </si>
 </sst>
 </file>
@@ -33051,4 +33649,1022 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="73.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>